--- a/change files/ASUNO_top v1.1.xlsx
+++ b/change files/ASUNO_top v1.1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\design-department\ASUNO\Заказы комплектации\Партия v1.1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\compel_exel_parser\change files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2908C31E-4EAD-41AF-A216-46DB0ECC9A76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F8AC19-EF99-4137-B2BD-DC8C2EB6B897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{C24F029D-8A6A-424F-BDF7-9BBF5B938F2D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -190,30 +190,6 @@
   </si>
   <si>
     <t>B322010</t>
-  </si>
-  <si>
-    <t>Примечание</t>
-  </si>
-  <si>
-    <t>TCC0603X7R104K500CT</t>
-  </si>
-  <si>
-    <t>CR-03FL7--240R</t>
-  </si>
-  <si>
-    <t>B3FS-1052P</t>
-  </si>
-  <si>
-    <t>Допайка у нас</t>
-  </si>
-  <si>
-    <t>DS1026-13-2x10S8BR</t>
-  </si>
-  <si>
-    <t>Название/закуплено</t>
-  </si>
-  <si>
-    <t>Количество</t>
   </si>
   <si>
     <t>20 плат</t>
@@ -252,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,14 +241,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -333,15 +303,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -397,19 +358,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -728,7 +690,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,63 +699,54 @@
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="9" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="J1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1495</v>
-      </c>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -808,15 +761,12 @@
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="8">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2">
-        <v>122</v>
-      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -831,15 +781,12 @@
       <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>6</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2">
-        <v>621</v>
-      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -854,15 +801,12 @@
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="2">
-        <v>50</v>
-      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -877,15 +821,12 @@
       <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>35</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2">
-        <v>966</v>
-      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -900,15 +841,12 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="2">
-        <v>299</v>
-      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -923,15 +861,12 @@
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>6</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2">
-        <v>125</v>
-      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -944,18 +879,12 @@
         <v>51</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>5</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G9" s="2">
-        <v>105</v>
-      </c>
-      <c r="H9" t="s">
-        <v>56</v>
-      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -970,15 +899,12 @@
       <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>3</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2">
-        <v>165</v>
-      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -993,15 +919,12 @@
       <c r="D11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>27</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="2">
-        <v>621</v>
-      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1016,15 +939,12 @@
       <c r="D12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>13</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2">
-        <v>299</v>
-      </c>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1039,15 +959,12 @@
       <c r="D13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="2">
-        <v>184</v>
-      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1062,18 +979,12 @@
       <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="2">
-        <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>56</v>
-      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1088,18 +999,12 @@
       <c r="D15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>1</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="2">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>56</v>
-      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
